--- a/Process/Timesheet/PTW-Timesheet (1).xlsx
+++ b/Process/Timesheet/PTW-Timesheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D003C44-D2DC-4C5F-B8AC-EB5C4C2EA092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5519DDA-279E-4EE1-B32B-02892A65B393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="494">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1606,7 +1606,7 @@
 11.30-12.15: Helping in Attendence Layout
 12:35 - 12:56 : meeting with Rafi 
 2.00-3.00 mins : Identifying the pages and Estimation
-4.35-4.50 : EF Session with other team 
+4.35-4.50 : Web API Session with other team 
 4.55-5.45: Layout Correction Explanation and Estimation
 </t>
   </si>
@@ -1626,7 +1626,7 @@
 12:35 - 12:56 : meeting with Rafi 
 2.00-3.00 : Identifying the Unique page for Estimation
 4.35-4.50 : Web API Session with team 
-4.55-5.45: Layout Correction Explanation and Estimation
+4.55-5.30: Layout Correction Explanation and Estimation
 </t>
   </si>
   <si>
@@ -1635,7 +1635,7 @@
 10.30-11.45: prepare for internal review
 1-1.45-Lunch
 4.35-4.50 : Web API Session with other team 
-4.55-5.45: Layout Correction Explanation and Estimation
+5.30-6: Internal Review with Anitha
 </t>
   </si>
   <si>
@@ -1666,31 +1666,40 @@
 12:35 - 12:56 : meeting with Rafi 
 1:00 - 1:40 : Lunch
 2:00 - 3:00: webAPI Session with team members
-3.00-3.20:uploading files in github
+3.00-3.40:exploration on html
+3.40-4.00:uploading code in github
 4:30- 4:45 : break
 4.45-5.45:Exploration on web api
 7.00-8.00:Brushing up of basic concepts in c#
 </t>
   </si>
   <si>
-    <t xml:space="preserve">8.45-9.00 : Updating Timesheet 
-9:05 - 9:30 : Team meeting
-10:40-10:55 : Estimation explanation meeting
-11.00-12.30: worked on attendace layout
-12:35 - 12:56 : meeting with Rafi 
-3.00-3.20:uploading files in github
-</t>
+    <t xml:space="preserve">                     3 Hrs and 40 mins</t>
   </si>
   <si>
     <t xml:space="preserve">
-9:30 - 10:20 : Softskill session(Problem Solving)
-10:20 - 10:40 : break
-1:00 - 1:40 : Lunch
-2:00 - 3:00: webAPI Session with team members
-4:30- 4:45 : break
-4.45-5.45:Exploration on web api
-7.00-8.00:Brushing up of basic concepts in c#
-</t>
+                              5 hrs and 10 mins</t>
+  </si>
+  <si>
+    <t>creating component in angular</t>
+  </si>
+  <si>
+    <t>8:40-9:00   : Updating Timesheet
+9:05-9:30   : Team Discussion about work Progress
+10:40-12:30 : intergarting the layout (TMS layout)
+12:35-12:56 : Client(Rafi) Meeting
+2:00-2:20   : creating the repositories and uploading the static page in github
+2:20-2:50   :  spliting the common page and prepaing for estimation
+3:00-4:00   : Web Api Session amoung Team
+4:30-4:50   : Presenting the Layout to the Client(Rafi)
+4:50-5:00   : Discussion with Layout team about changes in Layout
+5:00-5:40   : Discussion about Layout page Estimation               7:00-7:30   : correcting the changes in the layout</t>
+  </si>
+  <si>
+    <t>9:30-10:20  : Softskill session
+10:20-10:40 : Tea Break
+1:00-2:00   : Lunch Break
+4:00-4:30   : Tea Break</t>
   </si>
   <si>
     <t xml:space="preserve">8.45-9.00 : Refining course feedback layout
@@ -1705,7 +1714,7 @@
 </t>
   </si>
   <si>
-    <t>Estimation for TMS and refinning layouts</t>
+    <t>Estimation for TMS and refineed layouts</t>
   </si>
   <si>
     <t xml:space="preserve">8.45-9.00 : Updating Timesheet and HLD Document
@@ -1995,7 +2004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2146,6 +2155,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2173,74 +2245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3458,14 +3466,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3969,14 +3977,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4219,14 +4227,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4336,27 +4344,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4389,7 +4397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D3" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
@@ -4634,238 +4642,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" style="65"/>
-    <col min="2" max="2" width="30.28515625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="25" style="65"/>
-    <col min="5" max="5" width="47" style="65" customWidth="1"/>
-    <col min="6" max="6" width="42" style="65" customWidth="1"/>
-    <col min="7" max="16384" width="25" style="65"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="267" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="58" t="s">
         <v>464</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="G2" s="81"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="147.75" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="G3" s="82"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="244.5" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" ht="228.75" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58" t="s">
         <v>473</v>
       </c>
       <c r="F5" s="85" t="s">
         <v>474</v>
       </c>
-      <c r="G5" s="63"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="120" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="74" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G6" s="83"/>
-    </row>
-    <row r="7" spans="1:7" ht="132.75" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="1:7" ht="162" customHeight="1">
+      <c r="A7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="G7" s="81"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="1:7" ht="150" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="84" t="s">
         <v>481</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="65" t="s">
         <v>483</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="230.25" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="74" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="59" t="s">
         <v>486</v>
       </c>
-      <c r="G9" s="81"/>
-    </row>
-    <row r="10" spans="1:7" ht="172.5" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="G9" s="71"/>
+    </row>
+    <row r="10" spans="1:7" ht="204.75" customHeight="1">
+      <c r="A10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="81"/>
+      <c r="B10" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58" t="s">
+        <v>488</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="1:7" ht="189.75" customHeight="1">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="74" t="s">
-        <v>487</v>
-      </c>
-      <c r="F11" s="74" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="F11" s="64" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="77" t="s">
-        <v>488</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="78" t="s">
-        <v>489</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>490</v>
-      </c>
-      <c r="G12" s="84"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="G12" s="74"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
     <sortCondition ref="A2:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process/Timesheet/PTW-Timesheet (1).xlsx
+++ b/Process/Timesheet/PTW-Timesheet (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA2CB61D-E9AC-4691-A992-57C9650EDE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA24B08-FB33-49B4-B1F1-D33627867964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
     <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
     <sheet name="27-04-22" sheetId="59" r:id="rId18"/>
+    <sheet name="28-04-22" sheetId="60" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="645">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1548,10 +1549,16 @@
     <t>3.10 hrs</t>
   </si>
   <si>
-    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
-  </si>
-  <si>
-    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
+    <t>web api Services and web api exploration</t>
+  </si>
+  <si>
+    <t>20:00-21:00 : reviewing and understanding the Api services,
+21:00-23:00 : Learning Angular&lt;Components and lifecycle&gt;,
+TOTAL-3 hrs</t>
+  </si>
+  <si>
+    <t>8:00-17:00 : Went college for internals ,
+TOTAL -9 hrs</t>
   </si>
   <si>
     <t xml:space="preserve">Web Api exploration,
@@ -1764,7 +1771,7 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>Timesheet and MOM updating</t>
+    <t>Timesheet updating</t>
   </si>
   <si>
     <t>Project</t>
@@ -1776,156 +1783,427 @@
     <t>Time</t>
   </si>
   <si>
+    <t>SoftSkill</t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Api Service resolvinng conflicts &amp; Estimations for Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>MOM update</t>
+  </si>
+  <si>
+    <t>Api Service implementation on Controller</t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t>Service explanation to Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Api Swagger Testing</t>
+  </si>
+  <si>
+    <t>Went to College for internal exams</t>
+  </si>
+  <si>
+    <t>understanding and reviewing  API services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Components and life cycle&gt;</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
     <t>Team Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting </t>
-  </si>
-  <si>
-    <t>Non Project</t>
-  </si>
-  <si>
-    <t>Api Service refining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration </t>
-  </si>
-  <si>
-    <t>Customer Meeting</t>
-  </si>
-  <si>
-    <t>Customer Review</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript Intorduction and Sample programs&gt;</t>
-  </si>
-  <si>
-    <t>Api Swagger Testing</t>
-  </si>
-  <si>
-    <t>Lunch and Break</t>
-  </si>
-  <si>
-    <t>Service explanation to Members</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunch </t>
-  </si>
-  <si>
-    <t>Morning Break</t>
-  </si>
-  <si>
-    <t>Evening Break</t>
+    <t>Logging in user services &amp; user controller</t>
+  </si>
+  <si>
+    <t>User Services List of Users by Role</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>helping other team with ui</t>
+  </si>
+  <si>
+    <t>fixing errors in user services</t>
+  </si>
+  <si>
+    <t>ef core exploration</t>
+  </si>
+  <si>
+    <t>CRUD Operation in user Services</t>
+  </si>
+  <si>
+    <t>Technical Session</t>
+  </si>
+  <si>
+    <t>Time Sheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for Dashboard</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
+  </si>
+  <si>
+    <t>Discussion about Services with Arul and Spliting Services</t>
+  </si>
+  <si>
+    <t>Service-Review</t>
+  </si>
+  <si>
+    <t>Web API User Service Exploration with Gokul</t>
+  </si>
+  <si>
+    <t>Discussion about Timesheet and Team performance Index with Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation Discussion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating TimeSheet </t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Estimation Preparation</t>
+  </si>
+  <si>
+    <t>Web API Exploration (user services) with gokul</t>
+  </si>
+  <si>
+    <t>Working on Feedback services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
   </si>
   <si>
     <t>Soft Skill</t>
   </si>
   <si>
+    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
+  </si>
+  <si>
+    <t>Service Discussion with Arul and Spliting the Service</t>
+  </si>
+  <si>
+    <t>Service-Course</t>
+  </si>
+  <si>
+    <t>Discussion about New Timesheet And Team Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal Review </t>
+  </si>
+  <si>
+    <t>Session about Serivces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal review </t>
+  </si>
+  <si>
+    <t>Working on WebAPI (Review  services)</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;data type,variable,type script &gt;</t>
+  </si>
+  <si>
+    <t>evening Break</t>
+  </si>
+  <si>
+    <t>Understanding the Department,User Services</t>
+  </si>
+  <si>
+    <t>Estimation for Coordinator list page</t>
+  </si>
+  <si>
+    <t>Reworking on model(review service)</t>
+  </si>
+  <si>
+    <t>Timesheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for ProfileView</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Service-Role</t>
+  </si>
+  <si>
+    <t>Estimation for unique pages</t>
+  </si>
+  <si>
+    <t>discussion about the rank table</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Working on HTML layout (Refining)</t>
+  </si>
+  <si>
+    <t>Estimation for department page</t>
+  </si>
+  <si>
+    <t>Discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Angular session &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>Pulling from git  (Web API), Exploring and working on department services</t>
+  </si>
+  <si>
     <t>Learned Angular &lt;Topics&gt;</t>
   </si>
   <si>
-    <t>Working on HTML layout</t>
-  </si>
-  <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>Database Migration</t>
-  </si>
-  <si>
-    <t>Logging in user services &amp; user controller</t>
-  </si>
-  <si>
-    <t>User Services List of Users by Role</t>
-  </si>
-  <si>
-    <t>client meeting</t>
-  </si>
-  <si>
-    <t>Time Sheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for Dashboard</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
-  </si>
-  <si>
-    <t>Discussion about Services with Arul and Spliting Services</t>
-  </si>
-  <si>
-    <t>Service-Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updating TimeSheet </t>
-  </si>
-  <si>
-    <t>Estimation Preparation</t>
-  </si>
-  <si>
-    <t>Web API Exploration</t>
-  </si>
-  <si>
-    <t>Working on Feedback services</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
-  </si>
-  <si>
-    <t>Service Discussion with Arul and Spliting the Service</t>
-  </si>
-  <si>
-    <t>Service-Course</t>
-  </si>
-  <si>
-    <t>Technical Session</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;data type &gt;</t>
-  </si>
-  <si>
-    <t>Working on WebAPI (Review )</t>
-  </si>
-  <si>
-    <t>Timesheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for ProfileView</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript introduction&gt;</t>
-  </si>
-  <si>
-    <t>discussion on services and spliting the services</t>
-  </si>
-  <si>
-    <t>Service-Role</t>
-  </si>
-  <si>
-    <t>Timesheet</t>
-  </si>
-  <si>
-    <t>Pulling from git and Web API exploration</t>
-  </si>
-  <si>
-    <t>Estimation for department page</t>
-  </si>
-  <si>
-    <t>013:00:00</t>
+    <t>IN Progress</t>
+  </si>
+  <si>
+    <t>Services Implementation</t>
+  </si>
+  <si>
+    <t>Component binding</t>
+  </si>
+  <si>
+    <t>Buildinng models and migrations</t>
+  </si>
+  <si>
+    <t>Angular Explorations</t>
+  </si>
+  <si>
+    <t>Scoreboard Discussion</t>
+  </si>
+  <si>
+    <t>Html layout for add,edit pages(Trainer,Trainee,Co,Reviewer)</t>
+  </si>
+  <si>
+    <t>Working on models and adding auditinng</t>
+  </si>
+  <si>
+    <t>updating Timesheet</t>
+  </si>
+  <si>
+    <t>Learning Angular &lt;components&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web api exploration </t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>Relearned css,html</t>
+  </si>
+  <si>
+    <t>Gathering Mom Details</t>
+  </si>
+  <si>
+    <t>Refactoring api service</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(course list)</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(course list,add course)</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>User service hashing password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked in user services crud operation </t>
+  </si>
+  <si>
+    <t>audit fields</t>
+  </si>
+  <si>
+    <t>Meeting with rafi</t>
+  </si>
+  <si>
+    <t>Refactoring user service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolving git conflicts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code review by Kavin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defensive coding, exception handling , surfing Logger documentation </t>
+  </si>
+  <si>
+    <t>Updating Timesheet</t>
+  </si>
+  <si>
+    <t>Dashboard for all users</t>
+  </si>
+  <si>
+    <t>Home Pages</t>
+  </si>
+  <si>
+    <t>Estimation for all Unique Pages</t>
+  </si>
+  <si>
+    <t>Angular Exploration</t>
+  </si>
+  <si>
+    <t>Meeting with Client (Rafi)</t>
+  </si>
+  <si>
+    <t>Spliting all Pages induvidualy</t>
+  </si>
+  <si>
+    <t>Discussion about Page spliting with Team</t>
+  </si>
+  <si>
+    <t>Working on HTML Layout(Trainer,Reviewer,Profile for all users)</t>
+  </si>
+  <si>
+    <t>Working on HTML Layout(Consistancy for List pages )</t>
+  </si>
+  <si>
+    <t>Feedback Service controller</t>
+  </si>
+  <si>
+    <t>Reviewing the Controller and Service for Department and User</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi</t>
+  </si>
+  <si>
+    <t>Spliting the each individual pages</t>
+  </si>
+  <si>
+    <t>Working on TraineeFeedback service</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Working on Feedback Layout</t>
+  </si>
+  <si>
+    <t>Angular Component Exploration</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Angular Components&gt;</t>
+  </si>
+  <si>
+    <t>Spliting the Each Individual pages for team</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(Trainee navbar,View Mom)</t>
+  </si>
+  <si>
+    <t>Resource Name 7</t>
+  </si>
+  <si>
+    <t>Prathima L</t>
+  </si>
+  <si>
+    <t>Creating models for TMS</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout(trainee list ,trainer list)</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(review list layout,review details layout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updating timesheet </t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>my course list</t>
+  </si>
+  <si>
+    <t>estimation for all pages</t>
+  </si>
+  <si>
+    <t>meeting with client (rafi)</t>
+  </si>
+  <si>
+    <t>spliting the each individual pages</t>
+  </si>
+  <si>
+    <t>evening break</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(co-ordinator navbar,my courselist)</t>
+  </si>
+  <si>
+    <t>working on html consistancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobhana </t>
+  </si>
+  <si>
+    <t>Estimation for all pages</t>
+  </si>
+  <si>
+    <t>Meeting with client (rafi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding the controller and services in web api </t>
+  </si>
+  <si>
+    <t>Resource Name 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2205,7 +2483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2435,6 +2713,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2470,7 +2750,137 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3811,14 +4221,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3929,7 +4339,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="37.5">
+    <row r="9" spans="1:10" ht="49.5">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -4322,14 +4732,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4572,14 +4982,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4689,27 +5099,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4987,7 +5397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5046,15 +5456,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>346</v>
+        <v>468</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G3" s="71"/>
     </row>
@@ -5063,10 +5473,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="61" t="s">
@@ -5082,17 +5492,17 @@
         <v>16</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G5" s="54"/>
     </row>
@@ -5102,14 +5512,14 @@
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="58" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G6" s="72"/>
     </row>
@@ -5118,17 +5528,17 @@
         <v>19</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G7" s="70"/>
     </row>
@@ -5138,14 +5548,14 @@
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="74" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="59" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G8" s="70"/>
     </row>
@@ -5157,14 +5567,14 @@
         <v>302</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="64" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G9" s="70"/>
     </row>
@@ -5173,17 +5583,17 @@
         <v>22</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G10" s="70"/>
     </row>
@@ -5192,17 +5602,17 @@
         <v>24</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
@@ -5211,14 +5621,14 @@
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="68" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G12" s="73"/>
     </row>
@@ -5234,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5254,115 +5664,115 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="78" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D2" s="81">
-        <v>0.36458333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E2" s="81">
-        <v>0.38194444444444442</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F2" s="81">
         <f>E2-D2</f>
-        <v>1.7361111111111105E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q2" t="s">
         <v>504</v>
       </c>
-      <c r="I2" s="79" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="94"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D3" s="81">
-        <v>0.40972222222222227</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E3" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F3" s="81">
         <f t="shared" ref="F3:F60" si="0">E3-D3</f>
-        <v>3.125E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>9.7222222222222154E-2</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="Q3" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="94"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="80" t="s">
         <v>509</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D4" s="81">
         <v>0.44097222222222227</v>
       </c>
       <c r="E4" s="81">
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="81">
         <f>E4-D4</f>
-        <v>4.8611111111111049E-2</v>
+        <v>5.9027777777777735E-2</v>
       </c>
       <c r="H4" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I4" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>2.7777777777777679E-2</v>
+        <v>8.6805555555555525E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="94"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="80" t="s">
         <v>511</v>
       </c>
@@ -5370,88 +5780,88 @@
         <v>512</v>
       </c>
       <c r="D5" s="81">
-        <v>0.48958333333333331</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E5" s="81">
-        <v>0.51736111111111105</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F5" s="81">
         <f>E5-D5</f>
-        <v>2.7777777777777735E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H5" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="94"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="80" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D6" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E6" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F6" s="81">
         <f>E6-D6</f>
-        <v>6.25E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="94"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="80" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D7" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E7" s="81">
-        <v>0.73958333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="F7" s="81">
         <f>E7-D7</f>
-        <v>3.125E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H7" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I7" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
-        <v>2.7777777777777735E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="Q7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="94"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="80" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>508</v>
@@ -5460,81 +5870,99 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E8" s="81">
-        <v>0.61111111111111105</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F8" s="81">
         <f>E8-D8</f>
-        <v>2.7777777777777679E-2</v>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I8" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>3.819444444444442E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="94"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="80" t="s">
-        <v>514</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+        <v>518</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="F9" s="81">
         <f>E9-D9</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.28472222222222199</v>
+        <v>0.32638888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="94"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="80" t="s">
-        <v>514</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+        <v>520</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="F10" s="81">
         <f>E10-D10</f>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="94"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="80" t="s">
-        <v>514</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+        <v>521</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="F11" s="81">
         <f>E11-D11</f>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="94"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="80" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D12" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E12" s="81">
-        <v>0.56944444444444442</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="F12" s="81">
         <f>E12-D12</f>
@@ -5542,45 +5970,29 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="94"/>
-      <c r="B13" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="81">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="E13" s="81">
-        <v>0.4375</v>
-      </c>
+      <c r="A13" s="96"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="81">
         <f>E13-D13</f>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="94"/>
-      <c r="B14" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D14" s="81">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="E14" s="81">
-        <v>0.70138888888888884</v>
-      </c>
+      <c r="A14" s="96"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="81">
         <f>E14-D14</f>
-        <v>3.4722222222222099E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="94"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
@@ -5591,7 +6003,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="94"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
@@ -5602,101 +6014,93 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D17" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="81">
-        <v>0.4236111111111111</v>
+        <v>17.708333333333332</v>
       </c>
       <c r="F17" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="H17" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="96"/>
+      <c r="B18" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="I17" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="94"/>
-      <c r="B18" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>508</v>
-      </c>
       <c r="D18" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E18" s="81">
-        <v>0.45833333333333331</v>
+        <v>21.875</v>
       </c>
       <c r="F18" s="81">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>21.041666666666668</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I18" s="81">
         <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.22916666666666674</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="94"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="80" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D19" s="81">
-        <v>0.45833333333333331</v>
+        <v>21.875</v>
       </c>
       <c r="E19" s="81">
-        <v>0.47222222222222227</v>
+        <v>21.958333333333332</v>
       </c>
       <c r="F19" s="81">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>8.3333333333332149E-2</v>
       </c>
       <c r="H19" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I19" s="81">
         <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="94"/>
-      <c r="B20" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D20" s="81">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E20" s="81">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="A20" s="96"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="81">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="83" t="s">
         <v>510</v>
@@ -5707,25 +6111,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="94"/>
-      <c r="B21" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D21" s="81">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E21" s="81">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A21" s="96"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="81">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I21" s="81">
         <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
@@ -5733,22 +6129,14 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="94"/>
-      <c r="B22" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D22" s="81">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E22" s="81">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="A22" s="96"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="83" t="s">
         <v>512</v>
@@ -5759,79 +6147,55 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="94"/>
-      <c r="B23" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D23" s="81">
-        <v>0.65625</v>
-      </c>
-      <c r="E23" s="81">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A23" s="96"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="81">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I23" s="81">
         <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="94"/>
-      <c r="B24" s="80" t="s">
-        <v>522</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E24" s="81">
-        <v>0.75</v>
-      </c>
+      <c r="A24" s="96"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="81">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I24" s="79">
         <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
-        <v>0.34027777777777773</v>
+        <v>38.458333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="94"/>
-      <c r="B25" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D25" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="81">
-        <v>0.875</v>
-      </c>
+      <c r="A25" s="96"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="81">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I25" s="84"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="94"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -5843,7 +6207,7 @@
       <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="94"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5854,7 +6218,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="94"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
@@ -5865,7 +6229,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="94"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
       <c r="D29" s="81"/>
@@ -5876,7 +6240,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="94"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
       <c r="D30" s="81"/>
@@ -5887,7 +6251,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="94"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
@@ -5898,11 +6262,11 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="96" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C32" s="80" t="s">
         <v>508</v>
@@ -5918,19 +6282,19 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H32" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="96"/>
+      <c r="B33" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I32" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="94"/>
-      <c r="B33" s="80" t="s">
-        <v>525</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>503</v>
       </c>
       <c r="D33" s="81">
         <v>0.3888888888888889</v>
@@ -5943,20 +6307,20 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H33" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I33" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H33)</f>
-        <v>5.208333333333337E-2</v>
+        <v>0.12847222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="94"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="80" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D34" s="81">
         <v>0.40972222222222227</v>
@@ -5973,16 +6337,16 @@
       </c>
       <c r="I34" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H34)</f>
-        <v>1.3888888888888895E-2</v>
+        <v>2.3611111111111083E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="94"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="80" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D35" s="81">
         <v>0.44097222222222227</v>
@@ -5999,16 +6363,16 @@
       </c>
       <c r="I35" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H35)</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="94"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="80" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D36" s="81">
         <v>0.4513888888888889</v>
@@ -6021,7 +6385,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H36" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I36" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H36)</f>
@@ -6029,12 +6393,12 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="94"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D37" s="81">
         <v>0.47222222222222227</v>
@@ -6055,9 +6419,9 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="94"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="80" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C38" s="80" t="s">
         <v>512</v>
@@ -6073,90 +6437,138 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I38" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H38)</f>
-        <v>1.7361111111111049E-2</v>
+        <v>4.9999999999999933E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="94"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="80" t="s">
+        <v>532</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D39" s="81">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E39" s="81">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="F39" s="81">
         <f>E39-D39</f>
-        <v>0</v>
+        <v>9.7222222222221877E-3</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I39" s="79">
         <f t="shared" ref="I39" si="8">SUM(I33:I38)</f>
-        <v>0.13819444444444445</v>
+        <v>0.35069444444444436</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="94"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F40" s="81">
         <f>E40-D40</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I40" s="84"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="94"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D41" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E41" s="81">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F41" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="94"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D42" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E42" s="81">
+        <v>0.57430555555555551</v>
+      </c>
       <c r="F42" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2638888888888884E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="94"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E43" s="81">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="F43" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="94"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E44" s="81">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F44" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="94"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
       <c r="D45" s="81"/>
@@ -6167,11 +6579,11 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="96" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C46" s="80" t="s">
         <v>508</v>
@@ -6187,19 +6599,19 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H46" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I46" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="94"/>
+      <c r="A47" s="96"/>
       <c r="B47" s="80" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D47" s="81">
         <v>0.40972222222222227</v>
@@ -6212,46 +6624,46 @@
         <v>3.125E-2</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I47" s="81">
         <f t="shared" ref="I47" si="9">SUMIFS(F46:F60, C46:C60,H47)</f>
-        <v>0.14236111111111099</v>
+        <v>13.149305555555555</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="94"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="80" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D48" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E48" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F48" s="81">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H48" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I48" s="81">
         <f t="shared" ref="I48" si="10">SUMIFS(F46:F60, C46:C60,H48)</f>
-        <v>2.0833333333333315E-2</v>
+        <v>2.6388888888888962E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="94"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="80" t="s">
         <v>511</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D49" s="81">
         <v>0.48958333333333331</v>
@@ -6272,12 +6684,12 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="94"/>
+      <c r="A50" s="96"/>
       <c r="B50" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D50" s="81">
         <v>0.54166666666666663</v>
@@ -6290,7 +6702,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I50" s="81">
         <f t="shared" ref="I50" si="12">SUMIFS(F46:F60, C46:C60,H50)</f>
@@ -6298,12 +6710,12 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="94"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D51" s="81">
         <v>0.44097222222222227</v>
@@ -6320,16 +6732,16 @@
       </c>
       <c r="I51" s="81">
         <f t="shared" ref="I51" si="13">SUMIFS(F46:F60, C46:C60,H51)</f>
-        <v>0</v>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="94"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D52" s="81">
         <v>0.63541666666666663</v>
@@ -6342,7 +6754,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H52" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I52" s="81">
         <f t="shared" ref="I52" si="14">SUMIFS(F46:F60, C46:C60,H52)</f>
@@ -6350,9 +6762,9 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="94"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="80" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C53" s="80" t="s">
         <v>510</v>
@@ -6368,20 +6780,20 @@
         <v>6.25E-2</v>
       </c>
       <c r="H53" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I53" s="79">
         <f t="shared" ref="I53" si="15">SUM(I47:I52)</f>
-        <v>0.32638888888888884</v>
+        <v>13.366666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="94"/>
+      <c r="A54" s="96"/>
       <c r="B54" s="80" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D54" s="81">
         <v>0.58333333333333337</v>
@@ -6396,12 +6808,12 @@
       <c r="I54" s="84"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="94"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="80" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D55" s="81">
         <v>0.875</v>
@@ -6416,40 +6828,64 @@
       <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="94"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E56" s="81">
+        <v>13.541666666666666</v>
+      </c>
       <c r="F56" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.020833333333332</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="94"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E57" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F57" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E57-D57</f>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="94"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F58" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E58-D58</f>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="94"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="81"/>
@@ -6460,7 +6896,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="94"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
       <c r="D60" s="81"/>
@@ -6471,11 +6907,11 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C61" s="80" t="s">
         <v>508</v>
@@ -6491,19 +6927,19 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H61" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="96"/>
+      <c r="B62" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C62" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I61" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="94"/>
-      <c r="B62" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C62" s="80" t="s">
-        <v>503</v>
       </c>
       <c r="D62" s="81">
         <v>0.38194444444444442</v>
@@ -6516,20 +6952,20 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H62" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I62" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H62)</f>
-        <v>7.9861111111111119E-2</v>
+        <v>0.10069444444444438</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="94"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="80" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D63" s="81">
         <v>0.40972222222222227</v>
@@ -6546,16 +6982,16 @@
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H63)</f>
-        <v>4.1666666666666574E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="94"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D64" s="81">
         <v>0.44444444444444442</v>
@@ -6576,12 +7012,12 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="94"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="80" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D65" s="81">
         <v>0.46180555555555558</v>
@@ -6594,7 +7030,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H65" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H65)</f>
@@ -6602,7 +7038,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="94"/>
+      <c r="A66" s="96"/>
       <c r="B66" s="80" t="s">
         <v>511</v>
       </c>
@@ -6628,12 +7064,12 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="94"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="80" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D67" s="81">
         <v>0.52083333333333337</v>
@@ -6646,7 +7082,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H67" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I67" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H67)</f>
@@ -6654,12 +7090,12 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="94"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D68" s="81">
         <v>0.54166666666666663</v>
@@ -6672,7 +7108,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H68" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I68" s="79">
         <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
@@ -6680,12 +7116,12 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="94"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="80" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C69" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D69" s="81">
         <v>9.0277777777777776E-2</v>
@@ -6700,9 +7136,9 @@
       <c r="I69" s="84"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="94"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="80" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C70" s="80" t="s">
         <v>510</v>
@@ -6720,12 +7156,12 @@
       <c r="I70" s="84"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="94"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C71" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D71" s="81">
         <v>0.71527777777777779</v>
@@ -6739,26 +7175,42 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="94"/>
+      <c r="A72" s="96"/>
+      <c r="B72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E72" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F72" s="81">
+        <f>E72-D72</f>
+        <v>1.388888888888884E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="94"/>
+      <c r="A73" s="96"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="94"/>
+      <c r="A74" s="96"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="94"/>
+      <c r="A75" s="96"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="96" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C76" s="80" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D76" s="81">
         <v>0.40972222222222227</v>
@@ -6771,16 +7223,16 @@
         <v>3.125E-2</v>
       </c>
       <c r="H76" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I76" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="94"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="80" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="C77" s="80" t="s">
         <v>508</v>
@@ -6796,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I77" s="81">
         <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
@@ -6804,12 +7256,12 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="94"/>
+      <c r="A78" s="96"/>
       <c r="B78" s="80" t="s">
         <v>511</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D78" s="81">
         <v>0.4916666666666667</v>
@@ -6826,13 +7278,13 @@
       </c>
       <c r="I78" s="81">
         <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
-        <v>1.388888888888884E-2</v>
+        <v>1.9444444444444486E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="94"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="80" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="C79" s="80" t="s">
         <v>508</v>
@@ -6856,12 +7308,12 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="94"/>
+      <c r="A80" s="96"/>
       <c r="B80" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D80" s="81">
         <v>0.53125</v>
@@ -6874,7 +7326,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="H80" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I80" s="81">
         <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
@@ -6882,12 +7334,12 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="94"/>
+      <c r="A81" s="96"/>
       <c r="B81" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D81" s="81">
         <v>0.44444444444444442</v>
@@ -6908,12 +7360,12 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="94"/>
+      <c r="A82" s="96"/>
       <c r="B82" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D82" s="81">
         <v>0.63541666666666663</v>
@@ -6926,7 +7378,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I82" s="81">
         <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
@@ -6934,9 +7386,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="94"/>
+      <c r="A83" s="96"/>
       <c r="B83" s="80" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C83" s="80" t="s">
         <v>510</v>
@@ -6952,17 +7404,17 @@
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H83" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I83" s="79">
         <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
-        <v>0.29444444444444434</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="94"/>
+      <c r="A84" s="96"/>
       <c r="B84" s="80" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>508</v>
@@ -6980,12 +7432,12 @@
       <c r="I84" s="84"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="94"/>
+      <c r="A85" s="96"/>
       <c r="B85" s="80" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D85" s="81">
         <v>0.58333333333333337</v>
@@ -7000,12 +7452,12 @@
       <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="94"/>
+      <c r="A86" s="96"/>
       <c r="B86" s="80" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D86" s="81">
         <v>0.875</v>
@@ -7019,18 +7471,26 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="94"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
+      <c r="A87" s="96"/>
+      <c r="B87" s="80" t="s">
+        <v>555</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D87" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E87" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F87" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="94"/>
+      <c r="A88" s="96"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
       <c r="D88" s="81"/>
@@ -7041,7 +7501,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="94"/>
+      <c r="A89" s="96"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
       <c r="D89" s="81"/>
@@ -7052,7 +7512,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="94"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
       <c r="D90" s="81"/>
@@ -7063,14 +7523,14 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="94" t="s">
+      <c r="A91" s="96" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="80" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D91" s="81">
         <v>0.40972222222222227</v>
@@ -7083,16 +7543,16 @@
         <v>3.125E-2</v>
       </c>
       <c r="H91" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I91" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="94"/>
+      <c r="A92" s="96"/>
       <c r="B92" s="80" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>508</v>
@@ -7108,15 +7568,15 @@
         <v>0</v>
       </c>
       <c r="H92" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I92" s="81">
         <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
-        <v>-0.16666666666666663</v>
+        <v>6.5972222222222154E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="94"/>
+      <c r="A93" s="96"/>
       <c r="B93" s="80" t="s">
         <v>511</v>
       </c>
@@ -7138,13 +7598,13 @@
       </c>
       <c r="I93" s="81">
         <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
-        <v>6.25E-2</v>
+        <v>0.17708333333333326</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="94"/>
+      <c r="A94" s="96"/>
       <c r="B94" s="80" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>508</v>
@@ -7168,25 +7628,25 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="94"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D95" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E95" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F95" s="81">
         <f t="shared" si="17"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="H95" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I95" s="81">
         <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
@@ -7194,22 +7654,22 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="94"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C96" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D96" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E96" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F96" s="81">
         <f t="shared" si="17"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H96" s="83" t="s">
         <v>512</v>
@@ -7220,108 +7680,110 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="94"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C97" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D97" s="81">
-        <v>0.65625</v>
+        <v>0</v>
       </c>
       <c r="E97" s="81">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F97" s="81">
         <f t="shared" si="17"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H97" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I97" s="81">
         <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>3.8194444444444531E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="94"/>
+      <c r="A98" s="96"/>
       <c r="B98" s="80" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="C98" s="80" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D98" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E98" s="81">
-        <v>0.75</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F98" s="81">
         <f t="shared" si="17"/>
-        <v>8.333333333333337E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H98" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I98" s="79">
         <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
-        <v>-1.1111111111111183E-2</v>
+        <v>0.33611111111111108</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="94"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="80" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D99" s="81">
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E99" s="81">
-        <v>0.875</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F99" s="81">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="I99" s="84"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="94"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="80" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D100" s="81">
         <v>0.375</v>
       </c>
-      <c r="E100" s="81"/>
+      <c r="E100" s="81">
+        <v>0.3888888888888889</v>
+      </c>
       <c r="F100" s="81">
         <f t="shared" si="17"/>
-        <v>-0.375</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="94"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="80" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C101" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D101" s="81">
-        <v>0.14583333333333334</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E101" s="81">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F101" s="81">
         <f t="shared" si="17"/>
@@ -7329,18 +7791,26 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="94"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="80" t="s">
+        <v>558</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D102" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E102" s="81">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F102" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="94"/>
+      <c r="A103" s="96"/>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
       <c r="D103" s="81"/>
@@ -7351,7 +7821,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="94"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="80"/>
       <c r="C104" s="80"/>
       <c r="D104" s="81"/>
@@ -7362,7 +7832,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="94"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
       <c r="D105" s="81"/>
@@ -7373,267 +7843,275 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="94" t="s">
+      <c r="A106" s="96" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="80" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="C106" s="80" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D106" s="81">
-        <v>0.40972222222222227</v>
+        <v>0.375</v>
       </c>
       <c r="E106" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F106" s="81">
         <f t="shared" si="17"/>
-        <v>3.125E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H106" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I106" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="94"/>
-      <c r="B107" s="80" t="s">
-        <v>521</v>
+      <c r="A107" s="96"/>
+      <c r="B107" s="18" t="s">
+        <v>528</v>
       </c>
       <c r="C107" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D107" s="81">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="D107" s="85">
+        <v>0.40972222222222227</v>
       </c>
       <c r="E107" s="81">
-        <v>0</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="F107" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H107" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I107" s="81">
-        <f t="shared" ref="I107" si="32">SUMIFS(F106:F120, C106:C120,H107)</f>
-        <v>9.7222222222222265E-2</v>
+        <f>SUMIFS(F106:F120, C106:C120,H107)</f>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="94"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="80" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C108" s="80" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D108" s="81">
-        <v>0.4916666666666667</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E108" s="81">
-        <v>0.51527777777777783</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F108" s="81">
         <f t="shared" si="17"/>
-        <v>2.3611111111111138E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H108" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I108" s="81">
-        <f t="shared" ref="I108" si="33">SUMIFS(F106:F120, C106:C120,H108)</f>
+        <f t="shared" ref="I108" si="32">SUMIFS(F106:F120, C106:C120,H108)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="94"/>
-      <c r="B109" s="80" t="s">
-        <v>521</v>
+      <c r="A109" s="96"/>
+      <c r="B109" s="18" t="s">
+        <v>511</v>
       </c>
       <c r="C109" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D109" s="81">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="D109" s="85">
+        <v>0.4916666666666667</v>
       </c>
       <c r="E109" s="81">
-        <v>0</v>
+        <v>0.51527777777777783</v>
       </c>
       <c r="F109" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.3611111111111138E-2</v>
       </c>
       <c r="H109" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I109" s="81">
-        <f t="shared" ref="I109" si="34">SUMIFS(F106:F120, C106:C120,H109)</f>
+        <f t="shared" ref="I109" si="33">SUMIFS(F106:F120, C106:C120,H109)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="94"/>
+      <c r="A110" s="96"/>
       <c r="B110" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C110" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D110" s="81">
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E110" s="81">
-        <v>0.57638888888888895</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F110" s="81">
         <f t="shared" si="17"/>
-        <v>1.3888888888888951E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H110" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I110" s="81">
-        <f t="shared" ref="I110" si="35">SUMIFS(F106:F120, C106:C120,H110)</f>
+        <f t="shared" ref="I110" si="34">SUMIFS(F106:F120, C106:C120,H110)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="94"/>
-      <c r="B111" s="80" t="s">
-        <v>519</v>
+      <c r="A111" s="96"/>
+      <c r="B111" s="18" t="s">
+        <v>559</v>
       </c>
       <c r="C111" s="80" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D111" s="81">
-        <v>0.44444444444444442</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E111" s="81">
-        <v>0.4548611111111111</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F111" s="81">
         <f t="shared" si="17"/>
-        <v>1.0416666666666685E-2</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H111" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I111" s="81">
-        <f t="shared" ref="I111" si="36">SUMIFS(F106:F120, C106:C120,H111)</f>
+        <f t="shared" ref="I111" si="35">SUMIFS(F106:F120, C106:C120,H111)</f>
         <v>2.3611111111111138E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="94"/>
+      <c r="A112" s="96"/>
       <c r="B112" s="80" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D112" s="81">
-        <v>0.71527777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E112" s="81">
-        <v>0.72569444444444453</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F112" s="81">
         <f t="shared" si="17"/>
-        <v>1.0416666666666741E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H112" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I112" s="81">
-        <f t="shared" ref="I112" si="37">SUMIFS(F106:F120, C106:C120,H112)</f>
-        <v>3.4722222222222376E-2</v>
+        <f t="shared" ref="I112" si="36">SUMIFS(F106:F120, C106:C120,H112)</f>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="94"/>
+      <c r="A113" s="96"/>
       <c r="B113" s="80" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="C113" s="80" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D113" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E113" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="F113" s="81">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>E113-D113</f>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H113" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I113" s="79">
-        <f t="shared" ref="I113" si="38">SUM(I107:I112)</f>
-        <v>0.24930555555555578</v>
+        <f t="shared" ref="I113" si="37">SUM(I107:I112)</f>
+        <v>0.30833333333333335</v>
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="94"/>
-      <c r="B114" s="80" t="s">
-        <v>544</v>
+      <c r="A114" s="96"/>
+      <c r="B114" t="s">
+        <v>562</v>
       </c>
       <c r="C114" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D114" s="81">
+        <v>504</v>
+      </c>
+      <c r="D114" s="84">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E114" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E114" s="81">
-        <v>0.625</v>
-      </c>
       <c r="F114" s="81">
-        <f t="shared" si="17"/>
-        <v>8.333333333333337E-2</v>
+        <f>E114-D114</f>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="I114" s="84"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="94"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="80" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="C115" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D115" s="81">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E115" s="81">
-        <v>0.3888888888888889</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F115" s="81">
         <f t="shared" si="17"/>
-        <v>1.3888888888888895E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="94"/>
-      <c r="B116" s="80"/>
-      <c r="C116" s="80"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="81"/>
+      <c r="A116" s="96"/>
+      <c r="B116" s="80" t="s">
+        <v>564</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D116" s="85">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E116" s="81">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F116" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="94"/>
+      <c r="A117" s="96"/>
       <c r="B117" s="80"/>
       <c r="C117" s="80"/>
       <c r="D117" s="81"/>
@@ -7644,7 +8122,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="94"/>
+      <c r="A118" s="96"/>
       <c r="B118" s="80"/>
       <c r="C118" s="80"/>
       <c r="D118" s="81"/>
@@ -7655,7 +8133,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="94"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="80"/>
       <c r="C119" s="80"/>
       <c r="D119" s="81"/>
@@ -7666,7 +8144,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="94"/>
+      <c r="A120" s="96"/>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
       <c r="D120" s="81"/>
@@ -7677,14 +8155,14 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="94" t="s">
+      <c r="A121" s="96" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="80" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="C121" s="80" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D121" s="81">
         <v>0.375</v>
@@ -7697,19 +8175,19 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H121" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I121" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="94"/>
+      <c r="A122" s="96"/>
       <c r="B122" s="18" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C122" s="80" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D122" s="81">
         <v>0.40972222222222227</v>
@@ -7722,46 +8200,46 @@
         <v>3.125E-2</v>
       </c>
       <c r="H122" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I122" s="81">
-        <f t="shared" ref="I122" si="39">SUMIFS(F121:F135, C121:C135,H122)</f>
-        <v>0.15624999999999989</v>
+        <f t="shared" ref="I122" si="38">SUMIFS(F121:F135, C121:C135,H122)</f>
+        <v>0.15277777777777746</v>
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="94"/>
+      <c r="A123" s="96"/>
       <c r="B123" s="80" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="C123" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D123" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E123" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F123" s="81">
         <f t="shared" si="17"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H123" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I123" s="81">
-        <f t="shared" ref="I123" si="40">SUMIFS(F121:F135, C121:C135,H123)</f>
-        <v>0</v>
+        <f t="shared" ref="I123" si="39">SUMIFS(F121:F135, C121:C135,H123)</f>
+        <v>1.9444444444444542E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="94"/>
+      <c r="A124" s="96"/>
       <c r="B124" s="80" t="s">
         <v>511</v>
       </c>
       <c r="C124" s="80" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D124" s="81">
         <v>0.48958333333333331</v>
@@ -7777,43 +8255,43 @@
         <v>510</v>
       </c>
       <c r="I124" s="81">
-        <f t="shared" ref="I124" si="41">SUMIFS(F121:F135, C121:C135,H124)</f>
+        <f t="shared" ref="I124" si="40">SUMIFS(F121:F135, C121:C135,H124)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="94"/>
+      <c r="A125" s="96"/>
       <c r="B125" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C125" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D125" s="81">
         <v>0.54166666666666663</v>
       </c>
       <c r="E125" s="81">
-        <v>0.58333333333333337</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F125" s="81">
         <f t="shared" si="17"/>
-        <v>4.1666666666666741E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H125" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I125" s="81">
-        <f t="shared" ref="I125" si="42">SUMIFS(F121:F135, C121:C135,H125)</f>
+        <f t="shared" ref="I125" si="41">SUMIFS(F121:F135, C121:C135,H125)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="94"/>
+      <c r="A126" s="96"/>
       <c r="B126" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C126" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D126" s="81">
         <v>0.44097222222222227</v>
@@ -7829,17 +8307,17 @@
         <v>512</v>
       </c>
       <c r="I126" s="81">
-        <f t="shared" ref="I126" si="43">SUMIFS(F121:F135, C121:C135,H126)</f>
-        <v>0</v>
+        <f t="shared" ref="I126" si="42">SUMIFS(F121:F135, C121:C135,H126)</f>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="94"/>
+      <c r="A127" s="96"/>
       <c r="B127" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C127" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D127" s="81">
         <v>0.63541666666666663</v>
@@ -7852,17 +8330,17 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H127" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I127" s="81">
-        <f t="shared" ref="I127" si="44">SUMIFS(F121:F135, C121:C135,H127)</f>
-        <v>6.9444444444444531E-2</v>
+        <f t="shared" ref="I127" si="43">SUMIFS(F121:F135, C121:C135,H127)</f>
+        <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="94"/>
+      <c r="A128" s="96"/>
       <c r="B128" s="80" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>510</v>
@@ -7878,20 +8356,20 @@
         <v>6.25E-2</v>
       </c>
       <c r="H128" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I128" s="79">
-        <f t="shared" ref="I128" si="45">SUM(I122:I127)</f>
-        <v>0.31944444444444442</v>
+        <f t="shared" ref="I128" si="44">SUM(I122:I127)</f>
+        <v>0.34930555555555531</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="94"/>
+      <c r="A129" s="96"/>
       <c r="B129" s="80" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="C129" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D129" s="81">
         <v>0.58333333333333337</v>
@@ -7906,12 +8384,12 @@
       <c r="I129" s="84"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="94"/>
+      <c r="A130" s="96"/>
       <c r="B130" s="80" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="C130" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D130" s="81">
         <v>0.875</v>
@@ -7920,75 +8398,99 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F130" s="81">
-        <f t="shared" ref="F130:F193" si="46">E130-D130</f>
+        <f t="shared" ref="F130:F165" si="45">E130-D130</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="I130" s="84"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="94"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="80"/>
-      <c r="D131" s="81"/>
-      <c r="E131" s="81"/>
+      <c r="A131" s="96"/>
+      <c r="B131" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="C131" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D131" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E131" s="81">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F131" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="94"/>
-      <c r="B132" s="80"/>
-      <c r="C132" s="80"/>
-      <c r="D132" s="81"/>
-      <c r="E132" s="81"/>
+      <c r="A132" s="96"/>
+      <c r="B132" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C132" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E132" s="81">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F132" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="94"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="80"/>
-      <c r="D133" s="81"/>
-      <c r="E133" s="81"/>
+      <c r="A133" s="96"/>
+      <c r="B133" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="C133" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D133" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E133" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F133" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="94"/>
+      <c r="A134" s="96"/>
       <c r="B134" s="80"/>
       <c r="C134" s="80"/>
       <c r="D134" s="81"/>
       <c r="E134" s="81"/>
       <c r="F134" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="94"/>
+      <c r="A135" s="96"/>
       <c r="B135" s="80"/>
       <c r="C135" s="80"/>
       <c r="D135" s="81"/>
       <c r="E135" s="81"/>
       <c r="F135" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="94" t="s">
+      <c r="A136" s="96" t="s">
         <v>24</v>
       </c>
       <c r="B136" s="80" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="C136" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D136" s="81">
         <v>0.375</v>
@@ -7997,23 +8499,23 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F136" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H136" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I136" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="96"/>
+      <c r="B137" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="C137" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I136" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="94"/>
-      <c r="B137" s="80" t="s">
-        <v>551</v>
-      </c>
-      <c r="C137" s="80" t="s">
-        <v>510</v>
       </c>
       <c r="D137" s="81">
         <v>0.3888888888888889</v>
@@ -8022,24 +8524,24 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="F137" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H137" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I137" s="81">
-        <f t="shared" ref="I137" si="47">SUMIFS(F136:F150, C136:C150,H137)</f>
-        <v>0.24305555555555564</v>
+        <f t="shared" ref="I137" si="46">SUMIFS(F136:F150, C136:C150,H137)</f>
+        <v>0.14930555555555564</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="94"/>
+      <c r="A138" s="96"/>
       <c r="B138" s="80" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C138" s="80" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D138" s="81">
         <v>0.40972222222222227</v>
@@ -8048,24 +8550,24 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F138" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>3.125E-2</v>
       </c>
       <c r="H138" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I138" s="81">
-        <f t="shared" ref="I138" si="48">SUMIFS(F136:F150, C136:C150,H138)</f>
+        <f t="shared" ref="I138" si="47">SUMIFS(F136:F150, C136:C150,H138)</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="94"/>
+      <c r="A139" s="96"/>
       <c r="B139" s="80" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D139" s="81">
         <v>0.45833333333333331</v>
@@ -8074,217 +8576,241 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F139" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H139" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I139" s="81">
-        <f t="shared" ref="I139" si="49">SUMIFS(F136:F150, C136:C150,H139)</f>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" ref="I139" si="48">SUMIFS(F136:F150, C136:C150,H139)</f>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="94"/>
+      <c r="A140" s="96"/>
       <c r="B140" s="80" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D140" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E140" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F140" s="81">
+        <f t="shared" si="45"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H140" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I140" s="81">
+        <f t="shared" ref="I140" si="49">SUMIFS(F136:F150, C136:C150,H140)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="96"/>
+      <c r="B141" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D141" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E141" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E140" s="81">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F140" s="81">
-        <f t="shared" si="46"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H140" s="83" t="s">
-        <v>507</v>
-      </c>
-      <c r="I140" s="81">
-        <f t="shared" ref="I140" si="50">SUMIFS(F136:F150, C136:C150,H140)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="94"/>
-      <c r="B141" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="C141" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D141" s="81">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E141" s="81">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="F141" s="81">
-        <f t="shared" si="46"/>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="45"/>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H141" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I141" s="81">
-        <f t="shared" ref="I141" si="51">SUMIFS(F136:F150, C136:C150,H141)</f>
-        <v>0</v>
+        <f t="shared" ref="I141" si="50">SUMIFS(F136:F150, C136:C150,H141)</f>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="94"/>
+      <c r="A142" s="96"/>
       <c r="B142" s="80" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="C142" s="80" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D142" s="81">
-        <v>0.1111111111111111</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E142" s="81">
-        <v>0.125</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="F142" s="81">
-        <f t="shared" si="46"/>
-        <v>1.3888888888888895E-2</v>
+        <f>E142-D142</f>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H142" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I142" s="81">
-        <f t="shared" ref="I142" si="52">SUMIFS(F136:F150, C136:C150,H142)</f>
-        <v>5.902777777777779E-2</v>
+        <f t="shared" ref="I142" si="51">SUMIFS(F136:F150, C136:C150,H142)</f>
+        <v>5.9027777777777797E-2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="94"/>
+      <c r="A143" s="96"/>
       <c r="B143" s="80" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="C143" s="80" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D143" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E143" s="81">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F143" s="81">
-        <f t="shared" si="46"/>
+        <f>E143-D143</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H143" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I143" s="79">
-        <f t="shared" ref="I143" si="53">SUM(I137:I142)</f>
-        <v>0.3541666666666668</v>
+        <f t="shared" ref="I143" si="52">SUM(I137:I142)</f>
+        <v>0.35069444444444453</v>
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="94"/>
+      <c r="A144" s="96"/>
       <c r="B144" s="80" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="C144" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D144" s="81">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E144" s="81">
-        <v>0.875</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F144" s="81">
-        <f t="shared" si="46"/>
-        <v>0.125</v>
+        <f>E144-D144</f>
+        <v>3.125E-2</v>
       </c>
       <c r="I144" s="84"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="94"/>
+      <c r="A145" s="96"/>
       <c r="B145" s="80"/>
       <c r="C145" s="80"/>
       <c r="D145" s="81"/>
       <c r="E145" s="81"/>
       <c r="F145" s="81">
-        <f t="shared" si="46"/>
+        <f>E145-D145</f>
         <v>0</v>
       </c>
       <c r="I145" s="84"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="94"/>
-      <c r="B146" s="80"/>
-      <c r="C146" s="80"/>
-      <c r="D146" s="81"/>
-      <c r="E146" s="81"/>
+      <c r="A146" s="96"/>
+      <c r="B146" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D146" s="81">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E146" s="81">
+        <v>7.2916666666666671E-2</v>
+      </c>
       <c r="F146" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f>E146-D146</f>
+        <v>3.1250000000000007E-2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="94"/>
-      <c r="B147" s="80"/>
-      <c r="C147" s="80"/>
-      <c r="D147" s="81"/>
-      <c r="E147" s="81"/>
+      <c r="A147" s="96"/>
+      <c r="B147" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D147" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F147" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f>E147-D147</f>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="94"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="80"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="81"/>
+      <c r="A148" s="96"/>
+      <c r="B148" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D148" s="81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E148" s="81">
+        <v>0.125</v>
+      </c>
       <c r="F148" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="94"/>
+      <c r="A149" s="96"/>
       <c r="B149" s="80"/>
       <c r="C149" s="80"/>
       <c r="D149" s="81"/>
       <c r="E149" s="81"/>
       <c r="F149" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="94"/>
+      <c r="A150" s="96"/>
       <c r="B150" s="80"/>
       <c r="C150" s="80"/>
       <c r="D150" s="81"/>
       <c r="E150" s="81"/>
       <c r="F150" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="94" t="s">
+      <c r="A151" s="96" t="s">
         <v>23</v>
       </c>
       <c r="B151" s="80" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C151" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D151" s="81">
         <v>0.41666666666666669</v>
@@ -8293,20 +8819,20 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F151" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H151" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I151" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="94"/>
+      <c r="A152" s="96"/>
       <c r="B152" s="80" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="C152" s="80" t="s">
         <v>508</v>
@@ -8318,24 +8844,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F152" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>3.125E-2</v>
       </c>
       <c r="H152" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I152" s="81">
-        <f t="shared" ref="I152" si="54">SUMIFS(F151:F165, C151:C165,H152)</f>
+        <f t="shared" ref="I152" si="53">SUMIFS(F151:F165, C151:C165,H152)</f>
         <v>0.23958333333333343</v>
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="94"/>
+      <c r="A153" s="96"/>
       <c r="B153" s="80" t="s">
         <v>511</v>
       </c>
       <c r="C153" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D153" s="81">
         <v>0.48958333333333331</v>
@@ -8344,21 +8870,21 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F153" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2.4305555555555636E-2</v>
       </c>
       <c r="H153" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I153" s="81">
-        <f t="shared" ref="I153" si="55">SUMIFS(F151:F165, C151:C165,H153)</f>
+        <f t="shared" ref="I153" si="54">SUMIFS(F151:F165, C151:C165,H153)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="94"/>
+      <c r="A154" s="96"/>
       <c r="B154" s="80" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>508</v>
@@ -8370,50 +8896,50 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F154" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H154" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I154" s="81">
-        <f t="shared" ref="I154" si="56">SUMIFS(F151:F165, C151:C165,H154)</f>
+        <f t="shared" ref="I154" si="55">SUMIFS(F151:F165, C151:C165,H154)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="94"/>
+      <c r="A155" s="96"/>
       <c r="B155" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D155" s="81" t="s">
-        <v>553</v>
+        <v>516</v>
+      </c>
+      <c r="D155" s="81">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E155" s="81">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F155" s="81" t="e">
-        <f t="shared" si="46"/>
-        <v>#VALUE!</v>
+      <c r="F155" s="81">
+        <f t="shared" si="45"/>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H155" s="83" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I155" s="81">
-        <f t="shared" ref="I155" si="57">SUMIFS(F151:F165, C151:C165,H155)</f>
+        <f t="shared" ref="I155" si="56">SUMIFS(F151:F165, C151:C165,H155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="94"/>
+      <c r="A156" s="96"/>
       <c r="B156" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C156" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D156" s="81">
         <v>0.47222222222222227</v>
@@ -8422,24 +8948,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F156" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H156" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I156" s="81">
-        <f t="shared" ref="I156" si="58">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <f t="shared" ref="I156" si="57">SUMIFS(F151:F165, C151:C165,H156)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="94"/>
+      <c r="A157" s="96"/>
       <c r="B157" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C157" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D157" s="81">
         <v>0.65625</v>
@@ -8448,24 +8974,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F157" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H157" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="I157" s="81" t="e">
-        <f t="shared" ref="I157" si="59">SUMIFS(F151:F165, C151:C165,H157)</f>
-        <v>#VALUE!</v>
+        <v>516</v>
+      </c>
+      <c r="I157" s="81">
+        <f t="shared" ref="I157" si="58">SUMIFS(F151:F165, C151:C165,H157)</f>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="94"/>
+      <c r="A158" s="96"/>
       <c r="B158" s="80" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="C158" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D158" s="81">
         <v>0.66666666666666663</v>
@@ -8474,24 +9000,24 @@
         <v>0.75</v>
       </c>
       <c r="F158" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H158" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="I158" s="79" t="e">
-        <f t="shared" ref="I158" si="60">SUM(I152:I157)</f>
-        <v>#VALUE!</v>
+        <v>519</v>
+      </c>
+      <c r="I158" s="79">
+        <f t="shared" ref="I158" si="59">SUM(I152:I157)</f>
+        <v>0.35763888888888895</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="94"/>
+      <c r="A159" s="96"/>
       <c r="B159" s="80" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="C159" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D159" s="81">
         <v>0.75</v>
@@ -8500,75 +9026,75 @@
         <v>0.875</v>
       </c>
       <c r="F159" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.125</v>
       </c>
       <c r="I159" s="84"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="94"/>
+      <c r="A160" s="96"/>
       <c r="B160" s="80"/>
       <c r="C160" s="80"/>
       <c r="D160" s="81"/>
       <c r="E160" s="81"/>
       <c r="F160" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I160" s="84"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="94"/>
+      <c r="A161" s="96"/>
       <c r="B161" s="80"/>
       <c r="C161" s="80"/>
       <c r="D161" s="81"/>
       <c r="E161" s="81"/>
       <c r="F161" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="94"/>
+      <c r="A162" s="96"/>
       <c r="B162" s="80"/>
       <c r="C162" s="80"/>
       <c r="D162" s="81"/>
       <c r="E162" s="81"/>
       <c r="F162" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="94"/>
+      <c r="A163" s="96"/>
       <c r="B163" s="80"/>
       <c r="C163" s="80"/>
       <c r="D163" s="81"/>
       <c r="E163" s="81"/>
       <c r="F163" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="94"/>
+      <c r="A164" s="96"/>
       <c r="B164" s="80"/>
       <c r="C164" s="80"/>
       <c r="D164" s="81"/>
       <c r="E164" s="81"/>
       <c r="F164" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="94"/>
+      <c r="A165" s="96"/>
       <c r="B165" s="80"/>
       <c r="C165" s="80"/>
       <c r="D165" s="81"/>
       <c r="E165" s="81"/>
       <c r="F165" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -8587,6 +9113,3694 @@
     <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBC9E-6B7C-42AF-90E3-40C9ABA19EBC}">
+  <dimension ref="A1:Q166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F2" s="81">
+        <f t="shared" ref="F2:F64" si="0">E2-D2</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="96"/>
+      <c r="B3" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E3" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F3" s="81">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I3" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.22569444444444436</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="96"/>
+      <c r="B4" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E4" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="81">
+        <f t="shared" si="0"/>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I4" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="M4" s="82" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="96"/>
+      <c r="B5" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E5" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F5" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="96"/>
+      <c r="B6" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F6" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I6" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="96"/>
+      <c r="B7" s="80" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F7" s="81">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I7" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="96"/>
+      <c r="B8" s="80" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F8" s="81">
+        <f>E8-D8</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I8" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.8194444444444364E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="96"/>
+      <c r="B9" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="F9" s="81">
+        <f>E9-D9</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I9" s="79">
+        <f>SUM(I3:I8)</f>
+        <v>0.40624999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="96"/>
+      <c r="B10" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F10" s="81">
+        <f>E10-D10</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="96"/>
+      <c r="B11" s="80" t="s">
+        <v>585</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F11" s="81">
+        <f>E11-D11</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="96"/>
+      <c r="B12" s="80" t="s">
+        <v>586</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F12" s="81">
+        <f>E12-D12</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="96"/>
+      <c r="B13" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D13" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E13" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F13" s="81">
+        <f>E13-D13</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="96"/>
+      <c r="B14" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F14" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="96"/>
+      <c r="B15" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D15" s="81">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E15" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F15" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443088E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="96"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81">
+        <f>E16-D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D17" s="81">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="81">
+        <v>0.34375</v>
+      </c>
+      <c r="F17" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="96"/>
+      <c r="B18" s="80" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0.34375</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F18" s="81">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I18" s="81">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>1.2423611111111117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="96"/>
+      <c r="B19" s="80" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F19" s="81">
+        <f>E19-D19</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I19" s="81">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="96"/>
+      <c r="B20" s="80" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D20" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E20" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F20" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I20" s="81">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0.12152777777777785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="96"/>
+      <c r="B21" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D21" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E21" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="81">
+        <f>E21-D21</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I21" s="81">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="96"/>
+      <c r="B22" s="80" t="s">
+        <v>590</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" s="81">
+        <v>23.5</v>
+      </c>
+      <c r="E22" s="86">
+        <v>24.5625</v>
+      </c>
+      <c r="F22" s="81">
+        <f>E22-D22</f>
+        <v>1.0625</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I22" s="81">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="96"/>
+      <c r="B23" s="80" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="E23" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F23" s="81">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I23" s="81">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>1.1041666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="96"/>
+      <c r="B24" s="80" t="s">
+        <v>593</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E24" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F24" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I24" s="79">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>2.4784722222222229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="96"/>
+      <c r="B25" s="80" t="s">
+        <v>590</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E25" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F25" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I25" s="84"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="96"/>
+      <c r="B26" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E26" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F26" s="81">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="96"/>
+      <c r="B27" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E27" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F27" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="96"/>
+      <c r="B28" s="80" t="s">
+        <v>595</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E28" s="81">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F28" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="96"/>
+      <c r="B29" s="80" t="s">
+        <v>595</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="D29" s="81">
+        <v>23.958333333333332</v>
+      </c>
+      <c r="E29" s="81">
+        <v>24.999305555555555</v>
+      </c>
+      <c r="F29" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0409722222222229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="96"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="96"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F32" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="M32" s="82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="96"/>
+      <c r="B33" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E33" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F33" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H33" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I33" s="81">
+        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.23611111111111122</v>
+      </c>
+      <c r="M33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="96"/>
+      <c r="B34" s="80" t="s">
+        <v>598</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E34" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F34" s="81">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I34" s="81">
+        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="96"/>
+      <c r="B35" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E35" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I35" s="81">
+        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>9.0277777777777901E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="96"/>
+      <c r="B36" s="80" t="s">
+        <v>600</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D36" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E36" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F36" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I36" s="81">
+        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="96"/>
+      <c r="B37" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E37" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F37" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I37" s="81">
+        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="96"/>
+      <c r="B38" s="80" t="s">
+        <v>601</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D38" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E38" s="81">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F38" s="81">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222321E-2</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I38" s="81">
+        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="96"/>
+      <c r="B39" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D39" s="81">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E39" s="81">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="F39" s="81">
+        <f t="shared" si="0"/>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I39" s="79">
+        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+        <v>0.46736111111111134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="96"/>
+      <c r="B40" s="80" t="s">
+        <v>602</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F40" s="81">
+        <f t="shared" si="0"/>
+        <v>7.9861111111111049E-2</v>
+      </c>
+      <c r="I40" s="84"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="96"/>
+      <c r="B41" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D41" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E41" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F41" s="81">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I41" s="84"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="96"/>
+      <c r="B42" s="80" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D42" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E42" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F42" s="81">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="96"/>
+      <c r="B43" s="80" t="s">
+        <v>603</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E43" s="81">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F43" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="96"/>
+      <c r="B44" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" s="81">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E44" s="81">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F44" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="96"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="96"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E47" s="81">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F47" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H47" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I47" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="M47" s="82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="96"/>
+      <c r="B48" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D48" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E48" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F48" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I48" s="81">
+        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M48" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="96"/>
+      <c r="B49" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D49" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E49" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F49" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I49" s="81">
+        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="96"/>
+      <c r="B50" s="80" t="s">
+        <v>608</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D50" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E50" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="81">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="H50" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I50" s="81">
+        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="96"/>
+      <c r="B51" s="80" t="s">
+        <v>610</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D51" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E51" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F51" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I51" s="81">
+        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="96"/>
+      <c r="B52" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D52" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E52" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F52" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H52" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I52" s="81">
+        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="96"/>
+      <c r="B53" s="80" t="s">
+        <v>611</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D53" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E53" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F53" s="81">
+        <f t="shared" si="0"/>
+        <v>0.11111111111111105</v>
+      </c>
+      <c r="H53" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I53" s="81">
+        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>3.8194444444444364E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="96"/>
+      <c r="B54" s="80" t="s">
+        <v>612</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="E54" s="81">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F54" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I54" s="79">
+        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <v>0.5034722222222221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="96"/>
+      <c r="B55" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D55" s="81">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E55" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F55" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="I55" s="84"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="96"/>
+      <c r="B56" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D56" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E56" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="F56" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="I56" s="84"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="96"/>
+      <c r="B57" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D57" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E57" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F57" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="96"/>
+      <c r="B58" s="80" t="s">
+        <v>613</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F58" s="81">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="96"/>
+      <c r="B59" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D59" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E59" s="81">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="F59" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="96"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="96"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>587</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D62" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E62" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F62" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H62" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I62" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="M62" s="82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="96"/>
+      <c r="B63" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C63" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D63" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E63" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F63" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I63" s="81">
+        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="M63" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="96"/>
+      <c r="B64" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D64" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E64" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F64" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H64" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I64" s="81">
+        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>6.2500000000000111E-2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="96"/>
+      <c r="B65" t="s">
+        <v>616</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D65" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E65" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="81">
+        <f>E65-D65</f>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I65" s="81">
+        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="96"/>
+      <c r="B66" s="80" t="s">
+        <v>617</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E66" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F66" s="81">
+        <f>E66-D66</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I66" s="81">
+        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="96"/>
+      <c r="B67" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C67" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D67" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E67" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F67" s="81">
+        <f>E67-D67</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H67" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I67" s="81">
+        <f t="shared" ref="I67" si="26">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="96"/>
+      <c r="B68" s="80" t="s">
+        <v>618</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D68" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E68" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F68" s="81">
+        <f>E68-D68</f>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="H68" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I68" s="81">
+        <f t="shared" ref="I68" si="27">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>6.9444444444444364E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="96"/>
+      <c r="B69" s="80" t="s">
+        <v>561</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D69" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E69" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F69" s="81">
+        <f>E69-D69</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H69" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I69" s="79">
+        <f t="shared" ref="I69" si="28">SUM(I63:I68)</f>
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="96"/>
+      <c r="B70" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="C70" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D70" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="E70" s="81">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F70" s="81">
+        <f>E70-D70</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="I70" s="84"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="96"/>
+      <c r="B71" t="s">
+        <v>619</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D71" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E71" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F71" s="81">
+        <f>E71-D71</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I71" s="84"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="96"/>
+      <c r="B72" s="80" t="s">
+        <v>620</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D72" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E72" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F72" s="81">
+        <f>E72-D72</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="96"/>
+      <c r="B73" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="C73" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D73" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E73" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F73" s="81">
+        <f t="shared" ref="F73" si="29">E73-D73</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="96"/>
+      <c r="B74" s="80" t="s">
+        <v>622</v>
+      </c>
+      <c r="C74" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D74" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E74" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F74" s="81">
+        <f t="shared" ref="F74" si="30">E74-D74</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="96"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81">
+        <f t="shared" ref="F75:F129" si="31">E75-D75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="96"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C77" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D77" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E77" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F77" s="81">
+        <f t="shared" si="31"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H77" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I77" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="96"/>
+      <c r="B78" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D78" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E78" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F78" s="81">
+        <f t="shared" si="31"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I78" s="81">
+        <f t="shared" ref="I78" si="32">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.2770833333333334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="96"/>
+      <c r="B79" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D79" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E79" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F79" s="81">
+        <f t="shared" si="31"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I79" s="81">
+        <f t="shared" ref="I79" si="33">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="96"/>
+      <c r="B80" s="80" t="s">
+        <v>608</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D80" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E80" s="81">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="F80" s="81">
+        <f t="shared" si="31"/>
+        <v>5.1388888888888873E-2</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I80" s="81">
+        <f t="shared" ref="I80" si="34">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="96"/>
+      <c r="B81" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D81" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E81" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F81" s="81">
+        <f t="shared" si="31"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I81" s="81">
+        <f t="shared" ref="I81" si="35">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="96"/>
+      <c r="B82" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C82" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E82" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F82" s="81">
+        <f t="shared" si="31"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I82" s="81">
+        <f t="shared" ref="I82" si="36">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="96"/>
+      <c r="B83" s="80" t="s">
+        <v>623</v>
+      </c>
+      <c r="C83" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D83" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E83" s="81">
+        <v>0.59375</v>
+      </c>
+      <c r="F83" s="81">
+        <f t="shared" si="31"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H83" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I83" s="81">
+        <f t="shared" ref="I83" si="37">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="96"/>
+      <c r="B84" s="80" t="s">
+        <v>624</v>
+      </c>
+      <c r="C84" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D84" s="81">
+        <v>0.59375</v>
+      </c>
+      <c r="E84" s="81">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F84" s="81">
+        <f t="shared" si="31"/>
+        <v>0.10069444444444453</v>
+      </c>
+      <c r="H84" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I84" s="79">
+        <f t="shared" ref="I84" si="38">SUM(I78:I83)</f>
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="96"/>
+      <c r="B85" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D85" s="81">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E85" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F85" s="81">
+        <f t="shared" si="31"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I85" s="84"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="96"/>
+      <c r="B86" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D86" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E86" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="F86" s="81">
+        <f t="shared" si="31"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="I86" s="84"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="96"/>
+      <c r="B87" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D87" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E87" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F87" s="81">
+        <f t="shared" si="31"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="96"/>
+      <c r="B88" s="80" t="s">
+        <v>625</v>
+      </c>
+      <c r="C88" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D88" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E88" s="81">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="F88" s="81">
+        <f t="shared" si="31"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="96"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="96"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="96"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="96" t="s">
+        <v>626</v>
+      </c>
+      <c r="B92" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D92" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E92" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F92" s="81">
+        <f t="shared" si="31"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H92" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I92" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="96"/>
+      <c r="B93" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D93" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="81">
+        <f t="shared" si="31"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I93" s="81">
+        <f t="shared" ref="I93" si="39">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="96"/>
+      <c r="B94" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C94" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D94" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="81">
+        <f t="shared" si="31"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I94" s="81">
+        <f t="shared" ref="I94" si="40">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="96"/>
+      <c r="B95" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C95" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D95" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="81">
+        <f t="shared" si="31"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I95" s="81">
+        <f t="shared" ref="I95" si="41">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="96"/>
+      <c r="B96" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C96" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D96" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E96" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F96" s="81">
+        <f t="shared" si="31"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I96" s="81">
+        <f t="shared" ref="I96" si="42">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="96"/>
+      <c r="B97" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C97" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D97" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E97" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="81">
+        <f t="shared" si="31"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I97" s="81">
+        <f t="shared" ref="I97" si="43">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="96"/>
+      <c r="B98" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D98" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E98" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F98" s="81">
+        <f t="shared" si="31"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I98" s="81">
+        <f t="shared" ref="I98" si="44">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="96"/>
+      <c r="B99" s="80" t="s">
+        <v>578</v>
+      </c>
+      <c r="C99" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D99" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="81">
+        <f t="shared" si="31"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I99" s="79">
+        <f t="shared" ref="I99" si="45">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="96"/>
+      <c r="B100" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C100" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D100" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="81">
+        <f t="shared" si="31"/>
+        <v>0.125</v>
+      </c>
+      <c r="I100" s="84"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="96"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="84"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="96"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="96"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="96"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="96"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="96"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="96" t="s">
+        <v>627</v>
+      </c>
+      <c r="B107" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D107" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E107" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F107" s="81">
+        <f t="shared" si="31"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H107" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I107" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="96"/>
+      <c r="B108" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C108" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D108" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E108" s="81">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="F108" s="81">
+        <f t="shared" si="31"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I108" s="81">
+        <f t="shared" ref="I108" si="46">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0.28819444444444459</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="96"/>
+      <c r="B109" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C109" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D109" s="81">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E109" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F109" s="81">
+        <f t="shared" si="31"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I109" s="81">
+        <f t="shared" ref="I109" si="47">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="96"/>
+      <c r="B110" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D110" s="81">
+        <v>0</v>
+      </c>
+      <c r="E110" s="81">
+        <v>0</v>
+      </c>
+      <c r="F110" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I110" s="81">
+        <f t="shared" ref="I110" si="48">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="96"/>
+      <c r="B111" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D111" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E111" s="81">
+        <v>0.53125</v>
+      </c>
+      <c r="F111" s="81">
+        <f t="shared" si="31"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I111" s="81">
+        <f t="shared" ref="I111" si="49">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="96"/>
+      <c r="B112" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D112" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E112" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F112" s="81">
+        <f t="shared" si="31"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I112" s="81">
+        <f t="shared" ref="I112" si="50">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="96"/>
+      <c r="B113" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D113" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E113" s="81">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F113" s="81">
+        <f t="shared" si="31"/>
+        <v>7.986111111111116E-2</v>
+      </c>
+      <c r="H113" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I113" s="81">
+        <f t="shared" ref="I113" si="51">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>6.0416666666666674E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="96"/>
+      <c r="B114" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D114" s="81">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E114" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F114" s="81">
+        <f t="shared" si="31"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H114" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I114" s="79">
+        <f t="shared" ref="I114" si="52">SUM(I108:I113)</f>
+        <v>0.43541666666666673</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="96"/>
+      <c r="B115" s="80" t="s">
+        <v>629</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D115" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E115" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F115" s="81">
+        <f t="shared" si="31"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="I115" s="84"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="96"/>
+      <c r="B116" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D116" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E116" s="81">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="F116" s="81">
+        <f t="shared" si="31"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="I116" s="84"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="96"/>
+      <c r="B117" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C117" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D117" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E117" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F117" s="81">
+        <f t="shared" si="31"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="96"/>
+      <c r="B118" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C118" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D118" s="81">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E118" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F118" s="81">
+        <f t="shared" si="31"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="96"/>
+      <c r="B119" s="80" t="s">
+        <v>630</v>
+      </c>
+      <c r="C119" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D119" s="81">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E119" s="81">
+        <v>0.9375</v>
+      </c>
+      <c r="F119" s="81">
+        <f t="shared" si="31"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="96"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="96"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="80" t="s">
+        <v>631</v>
+      </c>
+      <c r="C122" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D122" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E122" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F122" s="81">
+        <f t="shared" si="31"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H122" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I122" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="M122" s="82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="96"/>
+      <c r="B123" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C123" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D123" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E123" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F123" s="81">
+        <f t="shared" si="31"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H123" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I123" s="81">
+        <f t="shared" ref="I123" si="53">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.30902777777777785</v>
+      </c>
+      <c r="M123" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="96"/>
+      <c r="B124" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C124" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D124" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E124" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F124" s="81">
+        <f t="shared" si="31"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I124" s="81">
+        <f t="shared" ref="I124" si="54">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="M124" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="96"/>
+      <c r="B125" s="80" t="s">
+        <v>634</v>
+      </c>
+      <c r="C125" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D125" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E125" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F125" s="81">
+        <f t="shared" si="31"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I125" s="81">
+        <f t="shared" ref="I125" si="55">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="96"/>
+      <c r="B126" s="80" t="s">
+        <v>635</v>
+      </c>
+      <c r="C126" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D126" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E126" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F126" s="81">
+        <f t="shared" si="31"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H126" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I126" s="81">
+        <f t="shared" ref="I126" si="56">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="96"/>
+      <c r="B127" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C127" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E127" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F127" s="81">
+        <f t="shared" si="31"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H127" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I127" s="81">
+        <f t="shared" ref="I127" si="57">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="96"/>
+      <c r="B128" s="80" t="s">
+        <v>636</v>
+      </c>
+      <c r="C128" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D128" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E128" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F128" s="81">
+        <f t="shared" si="31"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="H128" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I128" s="81">
+        <f t="shared" ref="I128" si="58">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>3.8194444444444586E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="96"/>
+      <c r="B129" s="80" t="s">
+        <v>637</v>
+      </c>
+      <c r="C129" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D129" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="E129" s="81">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F129" s="81">
+        <f t="shared" si="31"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="H129" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I129" s="79">
+        <f t="shared" ref="I129" si="59">SUM(I123:I128)</f>
+        <v>0.47569444444444459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="96"/>
+      <c r="B130" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="C130" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D130" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E130" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="F130" s="81">
+        <f t="shared" ref="F130:F193" si="60">E130-D130</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="I130" s="84"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="96"/>
+      <c r="B131" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C131" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D131" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E131" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F131" s="81">
+        <f t="shared" si="60"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I131" s="84"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="96"/>
+      <c r="B132" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="C132" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E132" s="81">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F132" s="81">
+        <f t="shared" si="60"/>
+        <v>0.14583333333333337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="96"/>
+      <c r="B133" s="80" t="s">
+        <v>639</v>
+      </c>
+      <c r="C133" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D133" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E133" s="81">
+        <v>0.9375</v>
+      </c>
+      <c r="F133" s="81">
+        <f t="shared" si="60"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="96"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="96"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="96"/>
+      <c r="B136" s="80"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="81"/>
+      <c r="F136" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="96" t="s">
+        <v>640</v>
+      </c>
+      <c r="B137" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C137" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D137" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E137" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F137" s="81">
+        <f t="shared" si="60"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H137" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I137" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="96"/>
+      <c r="B138" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C138" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D138" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E138" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F138" s="81">
+        <f t="shared" si="60"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H138" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I138" s="81">
+        <f t="shared" ref="I138" si="61">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="96"/>
+      <c r="B139" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C139" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D139" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E139" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F139" s="81">
+        <f t="shared" si="60"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H139" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I139" s="81">
+        <f t="shared" ref="I139" si="62">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="96"/>
+      <c r="B140" s="80" t="s">
+        <v>641</v>
+      </c>
+      <c r="C140" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D140" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E140" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F140" s="81">
+        <f t="shared" si="60"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H140" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I140" s="81">
+        <f t="shared" ref="I140" si="63">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="96"/>
+      <c r="B141" s="80" t="s">
+        <v>642</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D141" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="E141" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F141" s="81">
+        <f t="shared" si="60"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I141" s="81">
+        <f t="shared" ref="I141" si="64">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="96"/>
+      <c r="B142" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C142" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D142" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E142" s="81">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F142" s="81">
+        <f t="shared" si="60"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H142" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I142" s="81">
+        <f t="shared" ref="I142" si="65">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="96"/>
+      <c r="B143" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D143" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E143" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="F143" s="81">
+        <f t="shared" si="60"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H143" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I143" s="81">
+        <f t="shared" ref="I143" si="66">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="96"/>
+      <c r="B144" s="80" t="s">
+        <v>578</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D144" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E144" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F144" s="81">
+        <f t="shared" si="60"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H144" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I144" s="79">
+        <f t="shared" ref="I144" si="67">SUM(I138:I143)</f>
+        <v>0.45138888888888895</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="96"/>
+      <c r="B145" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C145" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D145" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E145" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F145" s="81">
+        <f t="shared" si="60"/>
+        <v>0.125</v>
+      </c>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="96"/>
+      <c r="B146" s="80"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="I146" s="84"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="96"/>
+      <c r="B147" s="80"/>
+      <c r="C147" s="80"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="81"/>
+      <c r="F147" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="96"/>
+      <c r="B148" s="80"/>
+      <c r="C148" s="80"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="96"/>
+      <c r="B149" s="80"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="81"/>
+      <c r="F149" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="96"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="96"/>
+      <c r="B151" s="80"/>
+      <c r="C151" s="80"/>
+      <c r="D151" s="81"/>
+      <c r="E151" s="81"/>
+      <c r="F151" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="96" t="s">
+        <v>644</v>
+      </c>
+      <c r="B152" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C152" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D152" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E152" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F152" s="81">
+        <f t="shared" si="60"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H152" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I152" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="96"/>
+      <c r="B153" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C153" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D153" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E153" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F153" s="81">
+        <f t="shared" si="60"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H153" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I153" s="81">
+        <f t="shared" ref="I153" si="68">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="96"/>
+      <c r="B154" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C154" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D154" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E154" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F154" s="81">
+        <f t="shared" si="60"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H154" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I154" s="81">
+        <f t="shared" ref="I154" si="69">SUMIFS(F152:F166, C152:C166,H154)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="96"/>
+      <c r="B155" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C155" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D155" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E155" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F155" s="81">
+        <f t="shared" si="60"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H155" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I155" s="81">
+        <f t="shared" ref="I155" si="70">SUMIFS(F152:F166, C152:C166,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="96"/>
+      <c r="B156" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C156" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D156" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E156" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F156" s="81">
+        <f t="shared" si="60"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H156" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I156" s="81">
+        <f t="shared" ref="I156" si="71">SUMIFS(F152:F166, C152:C166,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="96"/>
+      <c r="B157" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C157" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D157" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E157" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F157" s="81">
+        <f t="shared" si="60"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H157" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I157" s="81">
+        <f t="shared" ref="I157" si="72">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="96"/>
+      <c r="B158" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C158" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D158" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E158" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F158" s="81">
+        <f t="shared" si="60"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H158" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I158" s="81">
+        <f t="shared" ref="I158" si="73">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="96"/>
+      <c r="B159" s="80" t="s">
+        <v>578</v>
+      </c>
+      <c r="C159" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D159" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E159" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F159" s="81">
+        <f t="shared" si="60"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H159" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I159" s="79">
+        <f t="shared" ref="I159" si="74">SUM(I153:I158)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="96"/>
+      <c r="B160" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C160" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D160" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E160" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F160" s="81">
+        <f t="shared" si="60"/>
+        <v>0.125</v>
+      </c>
+      <c r="I160" s="84"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="96"/>
+      <c r="B161" s="80"/>
+      <c r="C161" s="80"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
+      <c r="F161" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="I161" s="84"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="96"/>
+      <c r="B162" s="80"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
+      <c r="F162" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="96"/>
+      <c r="B163" s="80"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="81"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="96"/>
+      <c r="B164" s="80"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="81"/>
+      <c r="E164" s="81"/>
+      <c r="F164" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="96"/>
+      <c r="B165" s="80"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="81"/>
+      <c r="E165" s="81"/>
+      <c r="F165" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="96"/>
+      <c r="B166" s="80"/>
+      <c r="C166" s="80"/>
+      <c r="D166" s="81"/>
+      <c r="E166" s="81"/>
+      <c r="F166" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
@@ -8594,7 +12808,7 @@
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I19 I34 I48 I63 I78 I93 I108 I123 I138 I153">
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109 I124 I139 I154">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
@@ -8605,7 +12819,7 @@
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I20 I35 I49 I64 I79 I94 I109 I124 I139 I154">
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110 I125 I140 I155">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
@@ -8613,7 +12827,7 @@
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I21 I36 I50 I65 I80 I95 I110 I125 I140 I155">
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111 I126 I141 I156">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
@@ -8621,7 +12835,7 @@
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I22 I37 I51 I66 I81 I96 I111 I126 I141 I156">
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112 I127 I142 I157">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
@@ -8629,7 +12843,7 @@
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I23 I38 I52 I67 I82 I97 I112 I127 I142 I157">
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113 I128 I143 I158">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.0625</formula>
     </cfRule>
@@ -8638,7 +12852,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C40 C41:C71 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{FEDDA3A6-1FCA-46C7-B5B4-47C38DBA43DD}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
